--- a/docs/Plan.xlsx
+++ b/docs/Plan.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaumall/Projects/_DEVELOPMENT/_fullstack-training/_CaseStudy/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CF3D74-B4D0-694C-9548-8E8EBBF164B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E543BD16-C91C-0C4C-98D5-034794E3180D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16660" xr2:uid="{88649D41-1870-E64C-946B-E787956EDF3A}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16660" activeTab="3" xr2:uid="{88649D41-1870-E64C-946B-E787956EDF3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture" sheetId="2" r:id="rId1"/>
     <sheet name="Microservice" sheetId="3" r:id="rId2"/>
     <sheet name="Functionalities" sheetId="4" r:id="rId3"/>
-    <sheet name="Component + Styling" sheetId="6" r:id="rId4"/>
+    <sheet name="Component + Styling + Unit Test" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
   <si>
     <t>Micro Service Architecture</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>Styling and component creation</t>
+  </si>
+  <si>
+    <t>Unit Test cases Zest enzyme</t>
+  </si>
+  <si>
+    <t>For Component/ Pages/ Containers only</t>
+  </si>
+  <si>
+    <t>Satyendra</t>
   </si>
 </sst>
 </file>
@@ -331,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -348,6 +357,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -357,15 +375,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BFDDE9-2D9F-F947-9449-F204C5B3F352}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -711,18 +724,18 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -733,7 +746,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -750,10 +763,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -764,10 +777,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -778,7 +791,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -804,7 +817,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A11" sqref="A11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -826,17 +839,17 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -844,10 +857,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -855,10 +868,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -866,10 +879,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -877,10 +890,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -888,10 +901,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -899,10 +912,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -910,7 +923,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -919,7 +932,7 @@
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -928,7 +941,7 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -976,18 +989,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -998,10 +1011,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1012,7 +1025,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1024,7 +1037,7 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1036,7 +1049,7 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1048,7 +1061,7 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1060,7 +1073,7 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1072,7 +1085,7 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1093,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3851BE6B-5CED-CE45-B6E6-8C1234526ECD}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1122,15 +1135,15 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1140,7 +1153,7 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1150,7 +1163,7 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1160,7 +1173,7 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1170,7 +1183,7 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1180,7 +1193,7 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1190,7 +1203,7 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1200,7 +1213,7 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1208,6 +1221,20 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/Plan.xlsx
+++ b/docs/Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaumall/Projects/_DEVELOPMENT/_fullstack-training/_CaseStudy/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E543BD16-C91C-0C4C-98D5-034794E3180D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A973825-DE10-E545-B7B9-558C23EC4924}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16660" activeTab="3" xr2:uid="{88649D41-1870-E64C-946B-E787956EDF3A}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16660" xr2:uid="{88649D41-1870-E64C-946B-E787956EDF3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="65">
   <si>
     <t>Micro Service Architecture</t>
   </si>
@@ -150,9 +150,6 @@
     <t xml:space="preserve">Book seat for the user and update available seat for that event. </t>
   </si>
   <si>
-    <t>Currently working on minor fix for warning</t>
-  </si>
-  <si>
     <t>SSR / API Gateway Architecture</t>
   </si>
   <si>
@@ -211,13 +208,28 @@
   </si>
   <si>
     <t>Satyendra</t>
+  </si>
+  <si>
+    <t>Gaurav/ Harendra</t>
+  </si>
+  <si>
+    <t>Not required</t>
+  </si>
+  <si>
+    <t>This will be open</t>
+  </si>
+  <si>
+    <t>State management features</t>
+  </si>
+  <si>
+    <t>Route management if cancel of seat selection is not covered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -251,6 +263,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -340,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -366,6 +385,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -375,10 +398,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BFDDE9-2D9F-F947-9449-F204C5B3F352}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -724,12 +752,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -747,7 +775,7 @@
     </row>
     <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>26</v>
@@ -757,9 +785,6 @@
       </c>
       <c r="D4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -784,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
@@ -802,6 +827,9 @@
       </c>
       <c r="D7" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +845,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -839,11 +867,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -929,7 +957,9 @@
       <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="15" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -938,7 +968,9 @@
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="15" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
@@ -947,7 +979,9 @@
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="15" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -959,10 +993,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81ABFF4-7FF8-8744-B180-E6849085E2B0}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -989,12 +1023,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1028,25 +1062,29 @@
       <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -1056,21 +1094,25 @@
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+      <c r="B8" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -1082,19 +1124,33 @@
       <c r="C9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1108,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3851BE6B-5CED-CE45-B6E6-8C1234526ECD}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1135,105 +1191,121 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>49</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Plan.xlsx
+++ b/docs/Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaumall/Projects/_DEVELOPMENT/_fullstack-training/_CaseStudy/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A973825-DE10-E545-B7B9-558C23EC4924}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6BC06A-0312-4345-BAAC-BC2A5C9695A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16660" xr2:uid="{88649D41-1870-E64C-946B-E787956EDF3A}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16660" activeTab="3" xr2:uid="{88649D41-1870-E64C-946B-E787956EDF3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture" sheetId="2" r:id="rId1"/>
@@ -389,6 +389,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -397,15 +406,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,7 +723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BFDDE9-2D9F-F947-9449-F204C5B3F352}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -752,12 +752,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -867,11 +867,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -957,7 +957,7 @@
       <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -968,7 +968,7 @@
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -979,7 +979,7 @@
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1023,12 +1023,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1096,7 +1096,7 @@
       <c r="C7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       <c r="C9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1138,17 +1138,17 @@
       <c r="C10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="13" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1164,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3851BE6B-5CED-CE45-B6E6-8C1234526ECD}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1191,12 +1191,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1238,12 +1238,12 @@
       <c r="A6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="14" t="s">
-        <v>61</v>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1254,7 +1254,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>61</v>
       </c>
     </row>
